--- a/inputs/mobilityAH_edges_exampleWeights_error-duplicates_20230629.xlsx
+++ b/inputs/mobilityAH_edges_exampleWeights_error-duplicates_20230629.xlsx
@@ -590,8 +590,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D4" totalsRowShown="0">
-  <autoFilter ref="A1:D4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D5" totalsRowShown="0">
+  <autoFilter ref="A1:D5"/>
   <tableColumns count="4">
     <tableColumn id="1" name="layer"/>
     <tableColumn id="2" name="from"/>
@@ -902,14 +902,14 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.08984375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -946,7 +946,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -960,7 +960,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -974,13 +974,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
       <c r="D5">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>
